--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Anxa1-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H2">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I2">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J2">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>21.07768265420267</v>
+        <v>14.91853568134622</v>
       </c>
       <c r="R2">
-        <v>189.699143887824</v>
+        <v>134.266821132116</v>
       </c>
       <c r="S2">
-        <v>0.0005416498406427701</v>
+        <v>0.0003353618739341571</v>
       </c>
       <c r="T2">
-        <v>0.0006262179058032107</v>
+        <v>0.0004068588264832049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H3">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I3">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J3">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>1062.713238935331</v>
+        <v>1380.583961415903</v>
       </c>
       <c r="R3">
-        <v>9564.419150417976</v>
+        <v>12425.25565274313</v>
       </c>
       <c r="S3">
-        <v>0.02730938054063128</v>
+        <v>0.03103489741307503</v>
       </c>
       <c r="T3">
-        <v>0.03157320801690399</v>
+        <v>0.03765133404517362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H4">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I4">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J4">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>2.302214461192</v>
+        <v>3.535078583899555</v>
       </c>
       <c r="R4">
-        <v>20.719930150728</v>
+        <v>31.815707255096</v>
       </c>
       <c r="S4">
-        <v>5.916182136756339E-05</v>
+        <v>7.946695330718151E-05</v>
       </c>
       <c r="T4">
-        <v>6.839878663369401E-05</v>
+        <v>9.640878668606001E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H5">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I5">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J5">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>331.873827011064</v>
+        <v>533.9705315412473</v>
       </c>
       <c r="R5">
-        <v>1991.242962066384</v>
+        <v>3203.823189247484</v>
       </c>
       <c r="S5">
-        <v>0.008528423568337903</v>
+        <v>0.01200341386770283</v>
       </c>
       <c r="T5">
-        <v>0.006573313785685617</v>
+        <v>0.009708308665133936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.404364</v>
+        <v>22.61022533333333</v>
       </c>
       <c r="H6">
-        <v>52.213092</v>
+        <v>67.830676</v>
       </c>
       <c r="I6">
-        <v>0.03673162149179448</v>
+        <v>0.04352672200082041</v>
       </c>
       <c r="J6">
-        <v>0.03917989134808628</v>
+        <v>0.04795217939334551</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>11.401981752408</v>
+        <v>3.273282321506667</v>
       </c>
       <c r="R6">
-        <v>102.617835771672</v>
+        <v>29.45954089356</v>
       </c>
       <c r="S6">
-        <v>0.0002930057208149568</v>
+        <v>7.358189280122206E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003387528530597597</v>
+        <v>8.926906986867541E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H7">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I7">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J7">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>215.9774413868698</v>
+        <v>117.6697944815899</v>
       </c>
       <c r="R7">
-        <v>1943.796972481828</v>
+        <v>1059.028150334309</v>
       </c>
       <c r="S7">
-        <v>0.00555014270917993</v>
+        <v>0.002645163280477683</v>
       </c>
       <c r="T7">
-        <v>0.00641668931375879</v>
+        <v>0.003209094747493302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H8">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I8">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J8">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
         <v>10889.341586488</v>
       </c>
       <c r="R8">
-        <v>98004.07427839201</v>
+        <v>98004.07427839203</v>
       </c>
       <c r="S8">
-        <v>0.2798320020180147</v>
+        <v>0.2447874294338402</v>
       </c>
       <c r="T8">
-        <v>0.3235223148454924</v>
+        <v>0.2969745043136483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H9">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I9">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J9">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>23.59018289674066</v>
+        <v>27.88289543482823</v>
       </c>
       <c r="R9">
-        <v>212.311646070666</v>
+        <v>250.946058913454</v>
       </c>
       <c r="S9">
-        <v>0.000606215541640943</v>
+        <v>0.0006267947648123563</v>
       </c>
       <c r="T9">
-        <v>0.000700864282543231</v>
+        <v>0.0007604232987660371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H10">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I10">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J10">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>3400.623360596358</v>
+        <v>4211.686994471433</v>
       </c>
       <c r="R10">
-        <v>20403.74016357815</v>
+        <v>25270.12196682859</v>
       </c>
       <c r="S10">
-        <v>0.08738850145776501</v>
+        <v>0.09467680160165706</v>
       </c>
       <c r="T10">
-        <v>0.06735500843031944</v>
+        <v>0.07657418327044969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.3379163333333</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H11">
-        <v>535.013749</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I11">
-        <v>0.3763792138794219</v>
+        <v>0.3433165654922813</v>
       </c>
       <c r="J11">
-        <v>0.4014659877938717</v>
+        <v>0.3782223144872436</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>116.833092424126</v>
+        <v>25.81798014757667</v>
       </c>
       <c r="R11">
-        <v>1051.497831817134</v>
+        <v>232.36182132819</v>
       </c>
       <c r="S11">
-        <v>0.003002352152821314</v>
+        <v>0.0005803764114940848</v>
       </c>
       <c r="T11">
-        <v>0.003471110921757864</v>
+        <v>0.0007041088568862703</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H12">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I12">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J12">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>104.8986112246911</v>
+        <v>59.80328717461001</v>
       </c>
       <c r="R12">
-        <v>944.08750102222</v>
+        <v>538.22958457149</v>
       </c>
       <c r="S12">
-        <v>0.002695662373594606</v>
+        <v>0.001344350604019198</v>
       </c>
       <c r="T12">
-        <v>0.003116537511285353</v>
+        <v>0.001630957337865501</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H13">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I13">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J13">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>5288.870922068947</v>
+        <v>5534.28706923638</v>
       </c>
       <c r="R13">
-        <v>47599.83829862053</v>
+        <v>49808.58362312742</v>
       </c>
       <c r="S13">
-        <v>0.1359122887993397</v>
+        <v>0.1244082477041879</v>
       </c>
       <c r="T13">
-        <v>0.157132343589068</v>
+        <v>0.1509312703676493</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H14">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I14">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J14">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>11.45757357117667</v>
+        <v>14.17091625166</v>
       </c>
       <c r="R14">
-        <v>103.11816214059</v>
+        <v>127.53824626494</v>
       </c>
       <c r="S14">
-        <v>0.0002944343076416536</v>
+        <v>0.0003185557303363874</v>
       </c>
       <c r="T14">
-        <v>0.0003404044858744402</v>
+        <v>0.0003864697232685702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H15">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I15">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J15">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>1651.65706906317</v>
+        <v>2140.504518849585</v>
       </c>
       <c r="R15">
-        <v>9909.942414379018</v>
+        <v>12843.02711309751</v>
       </c>
       <c r="S15">
-        <v>0.04244393479736695</v>
+        <v>0.04811756474889842</v>
       </c>
       <c r="T15">
-        <v>0.03271381861919497</v>
+        <v>0.0389172760304293</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.61737833333332</v>
+        <v>90.63663000000001</v>
       </c>
       <c r="H16">
-        <v>259.852135</v>
+        <v>271.90989</v>
       </c>
       <c r="I16">
-        <v>0.1828045400309692</v>
+        <v>0.174483683330882</v>
       </c>
       <c r="J16">
-        <v>0.1949889965502952</v>
+        <v>0.1922238225092264</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>56.74495012848999</v>
+        <v>13.1214649251</v>
       </c>
       <c r="R16">
-        <v>510.7045511564099</v>
+        <v>118.0931843259</v>
       </c>
       <c r="S16">
-        <v>0.001458219753026319</v>
+        <v>0.0002949645434400814</v>
       </c>
       <c r="T16">
-        <v>0.001685892344872428</v>
+        <v>0.0003578490500137998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H17">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I17">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J17">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>107.5722057816393</v>
+        <v>94.89455725602532</v>
       </c>
       <c r="R17">
-        <v>645.433234689836</v>
+        <v>569.367343536152</v>
       </c>
       <c r="S17">
-        <v>0.002764367842287372</v>
+        <v>0.002133186341292518</v>
       </c>
       <c r="T17">
-        <v>0.002130646666504034</v>
+        <v>0.001725311787943779</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H18">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I18">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J18">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>5423.670576178351</v>
+        <v>8781.686525517602</v>
       </c>
       <c r="R18">
-        <v>32542.02345707011</v>
+        <v>52690.11915310561</v>
       </c>
       <c r="S18">
-        <v>0.139376341862711</v>
+        <v>0.1974083055069762</v>
       </c>
       <c r="T18">
-        <v>0.1074248273462736</v>
+        <v>0.1596629745542181</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H19">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I19">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J19">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>11.749597516757</v>
+        <v>22.48610213828533</v>
       </c>
       <c r="R19">
-        <v>70.497585100542</v>
+        <v>134.916612829712</v>
       </c>
       <c r="S19">
-        <v>0.0003019386773668483</v>
+        <v>0.0005054773143720325</v>
       </c>
       <c r="T19">
-        <v>0.0002327203444415684</v>
+        <v>0.0004088278422483305</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H20">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I20">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J20">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>1693.753540105419</v>
+        <v>3396.506082143762</v>
       </c>
       <c r="R20">
-        <v>6775.014160421675</v>
+        <v>13586.02432857505</v>
       </c>
       <c r="S20">
-        <v>0.04352572102622977</v>
+        <v>0.07635190670628257</v>
       </c>
       <c r="T20">
-        <v>0.02236507288527978</v>
+        <v>0.0411687255890066</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>88.82503149999999</v>
+        <v>143.820236</v>
       </c>
       <c r="H21">
-        <v>177.650063</v>
+        <v>287.640472</v>
       </c>
       <c r="I21">
-        <v>0.1874637554152924</v>
+        <v>0.2768669192002915</v>
       </c>
       <c r="J21">
-        <v>0.1333058414989229</v>
+        <v>0.2033443911738485</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>58.19123228634299</v>
+        <v>20.82085556572</v>
       </c>
       <c r="R21">
-        <v>349.147393718058</v>
+        <v>124.92513339432</v>
       </c>
       <c r="S21">
-        <v>0.001495386006697443</v>
+        <v>0.0004680433313681759</v>
       </c>
       <c r="T21">
-        <v>0.001152574256423964</v>
+        <v>0.0003785514004316686</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H22">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I22">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J22">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>124.3034135568102</v>
+        <v>55.458121222342</v>
       </c>
       <c r="R22">
-        <v>1118.730722011292</v>
+        <v>499.123091001078</v>
       </c>
       <c r="S22">
-        <v>0.003194322888762818</v>
+        <v>0.00124667325636037</v>
       </c>
       <c r="T22">
-        <v>0.003693054146358706</v>
+        <v>0.001512455820157899</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H23">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I23">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J23">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>6267.239401924317</v>
+        <v>5132.178809315636</v>
       </c>
       <c r="R23">
-        <v>56405.15461731885</v>
+        <v>46189.60928384072</v>
       </c>
       <c r="S23">
-        <v>0.1610541955211352</v>
+        <v>0.1153690375262052</v>
       </c>
       <c r="T23">
-        <v>0.186199668997193</v>
+        <v>0.1399649598499809</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H24">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I24">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J24">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>13.57706731621933</v>
+        <v>13.141290862852</v>
       </c>
       <c r="R24">
-        <v>122.193605845974</v>
+        <v>118.271617765668</v>
       </c>
       <c r="S24">
-        <v>0.0003489006106067381</v>
+        <v>0.0002954102214730351</v>
       </c>
       <c r="T24">
-        <v>0.0004033746404288348</v>
+        <v>0.0003583897436810605</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H25">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I25">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J25">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>1957.190941927962</v>
+        <v>1984.980503441787</v>
       </c>
       <c r="R25">
-        <v>11743.14565156777</v>
+        <v>11909.88302065072</v>
       </c>
       <c r="S25">
-        <v>0.05029547978280138</v>
+        <v>0.04462145585704924</v>
       </c>
       <c r="T25">
-        <v>0.03876542575129069</v>
+        <v>0.03608963844140006</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>102.6404036666667</v>
+        <v>84.051186</v>
       </c>
       <c r="H26">
-        <v>307.921211</v>
+        <v>252.153558</v>
       </c>
       <c r="I26">
-        <v>0.2166208691825219</v>
+        <v>0.1618061099757246</v>
       </c>
       <c r="J26">
-        <v>0.231059282808824</v>
+        <v>0.1782572924363359</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>67.24198653091399</v>
+        <v>12.16809019722</v>
       </c>
       <c r="R26">
-        <v>605.1778787782259</v>
+        <v>109.51281177498</v>
       </c>
       <c r="S26">
-        <v>0.001727970379215799</v>
+        <v>0.0002735331146368456</v>
       </c>
       <c r="T26">
-        <v>0.001997759273552814</v>
+        <v>0.0003318485811159703</v>
       </c>
     </row>
   </sheetData>
